--- a/biology/Zoologie/Fasciolopsis_buski/Fasciolopsis_buski.xlsx
+++ b/biology/Zoologie/Fasciolopsis_buski/Fasciolopsis_buski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fasciolopsis
 Fasciolopsis buski, la grande douve de l'intestin, unique représentant du genre Fasciolopsis, est un trématode, parasite normal du porc. C'est un ver de grande taille qui vit dans le duodénum de l'homme, causant la distomatose intestinale du Sud-Est asiatique ou fasciolopsiose.
@@ -512,7 +524,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Affection souvent grave, elle est très répandue de l'Inde à la Chine et à l'archipel malais, y touchant plus de 20 millions d'habitants.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte, foliacé (qui a l'apparence d'une feuille), ovale sans cône céphalique, est grisâtre et mesure de 30 à 70 mm sur 15 mm.
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fixé par ses ventouses à la muqueuse duodénale, il pond des œufs operculés caractéristiques (130 microns sur 75) qui sont éliminés avec les selles.
 Le cycle évolutif à travers un seul hôte intermédiaire, mollusque aquatique (planorbe), aboutit à des métacercaires enkystées infectieuses fixées à diverses plantes aquatiques, la châtaigne d'eau (Trapa natans) en particulier.
@@ -607,10 +625,12 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand nombre de parasités, n'hébergeant que peu de vers, font des formes latentes, avec fatigue et anémie légère.
-Dans les foyers plus importants, on trouve des formes intestinales[1] moyennes (jusqu'à 100 parasites) caractérisées par des douleurs abdominales avec diarrhée jaune verdâtre, fétide, de l'asthénie, de l'amaigrissement et une anémie avec éosinophilie à 20 - 25 %. Ces formes évoluent en quelques mois par crises successives.
+Dans les foyers plus importants, on trouve des formes intestinales moyennes (jusqu'à 100 parasites) caractérisées par des douleurs abdominales avec diarrhée jaune verdâtre, fétide, de l'asthénie, de l'amaigrissement et une anémie avec éosinophilie à 20 - 25 %. Ces formes évoluent en quelques mois par crises successives.
 Les réinfestations constantes amènent aux formes graves (jusqu'à 3 000 douves) caractérisées par l'action toxique des métabolites parasitaires, avec œdèmes, épanchements séreux, prostration, qui se terminent souvent par la mort par OAP ou cachexie.
 Enfin, chez l'enfant, la parasitose s'accompagne souvent d'un arrêt de croissance et d'un développement retardé.
 </t>
@@ -641,7 +661,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de certitude est obtenu par l'examen des selles, soit direct soit après concentration, qui montre la présence des œufs caractéristiques.
 </t>
@@ -672,7 +694,9 @@
           <t>Traitement (1980)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On emploiera le tétrachloroéthylène puis on administrera, 7 à 8 heures après, une purgation saline.
 On peut également utiliser l'hexachloroparaxylol dont une dose unique de 0,5 g·kg-1 par voie orale, répétée deux semaines après, donnerait une élimination des vers.
